--- a/数据整理/stocks/A股/创业板/301155-海力风电.xlsx
+++ b/数据整理/stocks/A股/创业板/301155-海力风电.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -803,56 +855,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/301155-海力风电.xlsx
+++ b/数据整理/stocks/A股/创业板/301155-海力风电.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -498,6 +515,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/301155-海力风电.xlsx
+++ b/数据整理/stocks/A股/创业板/301155-海力风电.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -515,6 +532,894 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014478</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014479</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>017290</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -796,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
